--- a/bugs.cristian.xlsx
+++ b/bugs.cristian.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="-15" yWindow="-15" windowWidth="17730" windowHeight="13365" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cristi's results" sheetId="1" r:id="rId1"/>
-    <sheet name="after Corneliu's changes" sheetId="2" r:id="rId2"/>
+    <sheet name="Cristi's tests (12May08)" sheetId="1" r:id="rId1"/>
+    <sheet name="Corneliu's changes (16May08)" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="114210"/>
@@ -1980,7 +1980,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2962,13 +2962,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="J2:J3"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A39"/>
     <mergeCell ref="C2:D2"/>
@@ -2976,6 +2969,13 @@
     <mergeCell ref="A4:A17"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bugs.cristian.xlsx
+++ b/bugs.cristian.xlsx
@@ -4,19 +4,227 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="17730" windowHeight="13365" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="17730" windowHeight="13365" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cristi's tests (12May08)" sheetId="1" r:id="rId1"/>
     <sheet name="Corneliu's changes (16May08)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="With dual analysis (20May08)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Corneliu</author>
+  </authors>
+  <commentList>
+    <comment ref="D11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Corneliu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Inference time - 4.62sec</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Corneliu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Inference time - 15.06sec</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Corneliu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Inference time - 79.76sec</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Corneliu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Inference time - 252sec</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Corneliu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Inference time - 14.50sec</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Corneliu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Inference time - 9.13sec</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Corneliu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Inference time - 3.94sec</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Corneliu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Inference time - 3.62sec</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Corneliu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Inference time - 2.36sec</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="156">
   <si>
     <t>Group</t>
   </si>
@@ -344,13 +552,157 @@
   </si>
   <si>
     <t>7,4</t>
+  </si>
+  <si>
+    <t>pepm08</t>
+  </si>
+  <si>
+    <t>fse08</t>
+  </si>
+  <si>
+    <t>mvm</t>
+  </si>
+  <si>
+    <t>BAD_SpamAssassin</t>
+  </si>
+  <si>
+    <t>BAD_Samba</t>
+  </si>
+  <si>
+    <t>gulavani-fse06</t>
+  </si>
+  <si>
+    <t>fig1</t>
+  </si>
+  <si>
+    <t>fig2</t>
+  </si>
+  <si>
+    <t>fig3b</t>
+  </si>
+  <si>
+    <t>fig4a</t>
+  </si>
+  <si>
+    <t>fig7b</t>
+  </si>
+  <si>
+    <t>fig10</t>
+  </si>
+  <si>
+    <t>fig11b</t>
+  </si>
+  <si>
+    <t>gulwani-pldi08</t>
+  </si>
+  <si>
+    <t>How?</t>
+  </si>
+  <si>
+    <t>2 runtime tests</t>
+  </si>
+  <si>
+    <t>PostStrong -m:2</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>Best result</t>
+  </si>
+  <si>
+    <t>Dual Analysis</t>
+  </si>
+  <si>
+    <t>ASIAN'06</t>
+  </si>
+  <si>
+    <t>PEPM'08</t>
+  </si>
+  <si>
+    <t>Type-check error (StrongStrong -m:2)</t>
+  </si>
+  <si>
+    <t>StrongWeak -m:1</t>
+  </si>
+  <si>
+    <t>PostStrong -m:1</t>
+  </si>
+  <si>
+    <t>DualStrong +individual -m:1</t>
+  </si>
+  <si>
+    <t>PostStrong +indir -m:2</t>
+  </si>
+  <si>
+    <t>StrongStrong +indir -m:1</t>
+  </si>
+  <si>
+    <t>StrongStrong -m:1</t>
+  </si>
+  <si>
+    <t>DualStrong -m:1</t>
+  </si>
+  <si>
+    <t>DualStrong +indir -m:1</t>
+  </si>
+  <si>
+    <t>StrongStrong -m:2</t>
+  </si>
+  <si>
+    <t>DualStrong -m:2</t>
+  </si>
+  <si>
+    <t>11 runtime tests</t>
+  </si>
+  <si>
+    <t>PostStrong -m:3</t>
+  </si>
+  <si>
+    <t>4 runtime tests</t>
+  </si>
+  <si>
+    <t>38 runtime tests</t>
+  </si>
+  <si>
+    <t>Type-check error (StrongWeak -m:2)</t>
+  </si>
+  <si>
+    <t>StrongWeak -m:2</t>
+  </si>
+  <si>
+    <t>5 runtime tests</t>
+  </si>
+  <si>
+    <t>Segm-fault (DualStrong -m:1)</t>
+  </si>
+  <si>
+    <t>PostStrong -m:4</t>
+  </si>
+  <si>
+    <t>DualStrong +individual -computeAll -m:1</t>
+  </si>
+  <si>
+    <t>Possible bug (5)</t>
+  </si>
+  <si>
+    <t>Must bug found (2)</t>
+  </si>
+  <si>
+    <t>Possible bug (4)</t>
+  </si>
+  <si>
+    <t>Possible bug (1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +726,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -383,7 +746,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -601,11 +964,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -672,6 +1225,316 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,6 +1560,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -993,10 +1874,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1013,45 +1897,45 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="136"/>
+      <c r="E2" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="136"/>
+      <c r="G2" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="130" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="131"/>
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1064,16 +1948,16 @@
       <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="33">
+      <c r="A4" s="137">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1110,7 +1994,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="34"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +2027,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="34"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1176,7 +2060,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="34"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
@@ -1207,7 +2091,7 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="34"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1238,7 +2122,7 @@
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="30">
-      <c r="A9" s="34"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1267,7 +2151,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="60">
-      <c r="A10" s="34"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1300,7 +2184,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="34"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
@@ -1335,7 +2219,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="34"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
@@ -1366,7 +2250,7 @@
       <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="34"/>
+      <c r="A13" s="138"/>
       <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
@@ -1397,7 +2281,7 @@
       <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="34"/>
+      <c r="A14" s="138"/>
       <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
@@ -1428,7 +2312,7 @@
       <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="34"/>
+      <c r="A15" s="138"/>
       <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
@@ -1461,7 +2345,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="34"/>
+      <c r="A16" s="138"/>
       <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
@@ -1494,7 +2378,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A17" s="34"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
@@ -1525,7 +2409,7 @@
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="28">
+      <c r="A18" s="132">
         <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1558,7 +2442,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="29"/>
+      <c r="A19" s="133"/>
       <c r="B19" s="9" t="s">
         <v>26</v>
       </c>
@@ -1583,7 +2467,7 @@
       <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="29"/>
+      <c r="A20" s="133"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
@@ -1612,7 +2496,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="30"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1641,7 +2525,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="45">
-      <c r="A22" s="28">
+      <c r="A22" s="132">
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1664,7 +2548,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="29"/>
+      <c r="A23" s="133"/>
       <c r="B23" s="9" t="s">
         <v>50</v>
       </c>
@@ -1681,7 +2565,7 @@
       <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="29"/>
+      <c r="A24" s="133"/>
       <c r="B24" s="9" t="s">
         <v>51</v>
       </c>
@@ -1698,7 +2582,7 @@
       <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="29"/>
+      <c r="A25" s="133"/>
       <c r="B25" s="9" t="s">
         <v>52</v>
       </c>
@@ -1715,7 +2599,7 @@
       <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="29"/>
+      <c r="A26" s="133"/>
       <c r="B26" s="9" t="s">
         <v>53</v>
       </c>
@@ -1732,7 +2616,7 @@
       <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="29"/>
+      <c r="A27" s="133"/>
       <c r="B27" s="9" t="s">
         <v>54</v>
       </c>
@@ -1749,7 +2633,7 @@
       <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="29"/>
+      <c r="A28" s="133"/>
       <c r="B28" s="9" t="s">
         <v>55</v>
       </c>
@@ -1766,7 +2650,7 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="29"/>
+      <c r="A29" s="133"/>
       <c r="B29" s="11" t="s">
         <v>56</v>
       </c>
@@ -1783,7 +2667,7 @@
       <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="29"/>
+      <c r="A30" s="133"/>
       <c r="B30" s="11" t="s">
         <v>57</v>
       </c>
@@ -1800,7 +2684,7 @@
       <c r="M30" s="14"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="29"/>
+      <c r="A31" s="133"/>
       <c r="B31" s="11" t="s">
         <v>58</v>
       </c>
@@ -1817,7 +2701,7 @@
       <c r="M31" s="14"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="29"/>
+      <c r="A32" s="133"/>
       <c r="B32" s="11" t="s">
         <v>59</v>
       </c>
@@ -1834,7 +2718,7 @@
       <c r="M32" s="14"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="29"/>
+      <c r="A33" s="133"/>
       <c r="B33" s="11" t="s">
         <v>60</v>
       </c>
@@ -1851,7 +2735,7 @@
       <c r="M33" s="14"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="29"/>
+      <c r="A34" s="133"/>
       <c r="B34" s="11" t="s">
         <v>61</v>
       </c>
@@ -1868,7 +2752,7 @@
       <c r="M34" s="14"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="29"/>
+      <c r="A35" s="133"/>
       <c r="B35" s="11" t="s">
         <v>62</v>
       </c>
@@ -1885,7 +2769,7 @@
       <c r="M35" s="14"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="29"/>
+      <c r="A36" s="133"/>
       <c r="B36" s="11" t="s">
         <v>63</v>
       </c>
@@ -1902,7 +2786,7 @@
       <c r="M36" s="14"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="29"/>
+      <c r="A37" s="133"/>
       <c r="B37" s="11" t="s">
         <v>64</v>
       </c>
@@ -1919,7 +2803,7 @@
       <c r="M37" s="14"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="29"/>
+      <c r="A38" s="133"/>
       <c r="B38" s="11" t="s">
         <v>65</v>
       </c>
@@ -1936,7 +2820,7 @@
       <c r="M38" s="14"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A39" s="30"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="15" t="s">
         <v>66</v>
       </c>
@@ -1971,22 +2855,26 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" customWidth="1"/>
@@ -1999,45 +2887,45 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="136"/>
+      <c r="E2" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="136"/>
+      <c r="G2" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="130" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="131"/>
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
@@ -2050,16 +2938,16 @@
       <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="33">
+      <c r="A4" s="137">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2087,8 +2975,8 @@
         <v>87</v>
       </c>
       <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M4" s="19" t="s">
@@ -2096,7 +2984,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="34"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -2129,7 +3017,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="34"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
@@ -2162,7 +3050,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="34"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
@@ -2195,7 +3083,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="34"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
@@ -2228,7 +3116,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="34"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
@@ -2257,7 +3145,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="30">
-      <c r="A10" s="34"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
@@ -2290,7 +3178,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="34"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
@@ -2325,7 +3213,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="34"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
@@ -2358,7 +3246,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="34"/>
+      <c r="A13" s="138"/>
       <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
@@ -2391,7 +3279,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="34"/>
+      <c r="A14" s="138"/>
       <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
@@ -2424,7 +3312,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="34"/>
+      <c r="A15" s="138"/>
       <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
@@ -2457,7 +3345,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="34"/>
+      <c r="A16" s="138"/>
       <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
@@ -2490,7 +3378,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A17" s="34"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
@@ -2523,7 +3411,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="28">
+      <c r="A18" s="132">
         <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -2556,7 +3444,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="29"/>
+      <c r="A19" s="133"/>
       <c r="B19" s="9" t="s">
         <v>26</v>
       </c>
@@ -2587,7 +3475,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="29"/>
+      <c r="A20" s="133"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
@@ -2618,7 +3506,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A21" s="30"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
@@ -2649,7 +3537,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="45">
-      <c r="A22" s="28">
+      <c r="A22" s="132">
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -2672,7 +3560,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="29"/>
+      <c r="A23" s="133"/>
       <c r="B23" s="9" t="s">
         <v>50</v>
       </c>
@@ -2689,7 +3577,7 @@
       <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="29"/>
+      <c r="A24" s="133"/>
       <c r="B24" s="9" t="s">
         <v>51</v>
       </c>
@@ -2706,7 +3594,7 @@
       <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="29"/>
+      <c r="A25" s="133"/>
       <c r="B25" s="9" t="s">
         <v>52</v>
       </c>
@@ -2723,7 +3611,7 @@
       <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="29"/>
+      <c r="A26" s="133"/>
       <c r="B26" s="9" t="s">
         <v>53</v>
       </c>
@@ -2740,7 +3628,7 @@
       <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="29"/>
+      <c r="A27" s="133"/>
       <c r="B27" s="9" t="s">
         <v>54</v>
       </c>
@@ -2757,7 +3645,7 @@
       <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="29"/>
+      <c r="A28" s="133"/>
       <c r="B28" s="9" t="s">
         <v>55</v>
       </c>
@@ -2774,7 +3662,7 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="29"/>
+      <c r="A29" s="133"/>
       <c r="B29" s="11" t="s">
         <v>56</v>
       </c>
@@ -2791,7 +3679,7 @@
       <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="29"/>
+      <c r="A30" s="133"/>
       <c r="B30" s="11" t="s">
         <v>57</v>
       </c>
@@ -2808,7 +3696,7 @@
       <c r="M30" s="14"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="29"/>
+      <c r="A31" s="133"/>
       <c r="B31" s="11" t="s">
         <v>58</v>
       </c>
@@ -2825,7 +3713,7 @@
       <c r="M31" s="14"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="29"/>
+      <c r="A32" s="133"/>
       <c r="B32" s="11" t="s">
         <v>59</v>
       </c>
@@ -2842,7 +3730,7 @@
       <c r="M32" s="14"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="29"/>
+      <c r="A33" s="133"/>
       <c r="B33" s="11" t="s">
         <v>60</v>
       </c>
@@ -2859,7 +3747,7 @@
       <c r="M33" s="14"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="29"/>
+      <c r="A34" s="133"/>
       <c r="B34" s="11" t="s">
         <v>61</v>
       </c>
@@ -2876,7 +3764,7 @@
       <c r="M34" s="14"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="29"/>
+      <c r="A35" s="133"/>
       <c r="B35" s="11" t="s">
         <v>62</v>
       </c>
@@ -2893,7 +3781,7 @@
       <c r="M35" s="14"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="29"/>
+      <c r="A36" s="133"/>
       <c r="B36" s="11" t="s">
         <v>63</v>
       </c>
@@ -2910,7 +3798,7 @@
       <c r="M36" s="14"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="29"/>
+      <c r="A37" s="133"/>
       <c r="B37" s="11" t="s">
         <v>64</v>
       </c>
@@ -2927,7 +3815,7 @@
       <c r="M37" s="14"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="29"/>
+      <c r="A38" s="133"/>
       <c r="B38" s="11" t="s">
         <v>65</v>
       </c>
@@ -2944,7 +3832,7 @@
       <c r="M38" s="14"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A39" s="30"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="15" t="s">
         <v>66</v>
       </c>
@@ -2962,36 +3850,1002 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="A18:A21"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="A22:A39"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A4:A17"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup scale="70" orientation="landscape" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A2" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="142" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="143"/>
+      <c r="M2" s="144"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="129"/>
+      <c r="H3" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="141"/>
+      <c r="K3" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="126" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="123" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="81"/>
+      <c r="G4" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="82"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="124"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="140"/>
+      <c r="B5" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="121"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="140"/>
+      <c r="B6" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="121"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="140"/>
+      <c r="B7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="121"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="140"/>
+      <c r="B8" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="121"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="140"/>
+      <c r="B9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="121"/>
+      <c r="F9" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" s="41"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="140"/>
+      <c r="B10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="42"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="34"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="140"/>
+      <c r="B11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="38"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="140"/>
+      <c r="B12" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="48"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" s="51"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="140"/>
+      <c r="B13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" s="32"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="140"/>
+      <c r="B14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="52"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="140"/>
+      <c r="B15" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" s="32"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="140"/>
+      <c r="B16" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="140"/>
+      <c r="B17" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="140"/>
+      <c r="B18" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="63"/>
+      <c r="H18" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="M18" s="67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="140"/>
+      <c r="B19" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="K19" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" s="32"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="140"/>
+      <c r="B20" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" s="32"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A21" s="141"/>
+      <c r="B21" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="72"/>
+      <c r="F21" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="71"/>
+      <c r="H21" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="75"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21" s="75"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="139" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="78"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="85"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="140"/>
+      <c r="B23" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="52"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="140"/>
+      <c r="B24" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="52"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="140"/>
+      <c r="B25" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="52"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="140"/>
+      <c r="B26" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="52"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="140"/>
+      <c r="B27" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="52"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="140"/>
+      <c r="B28" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="52"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="140"/>
+      <c r="B29" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="86"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="87"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A30" s="141"/>
+      <c r="B30" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="89"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="90"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="139" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="92"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="93"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="140"/>
+      <c r="B32" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="86"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="95"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="140"/>
+      <c r="B33" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="86"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="95"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="140"/>
+      <c r="B34" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="86"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="95"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="140"/>
+      <c r="B35" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="86"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="95"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="140"/>
+      <c r="B36" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="86"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="95"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A37" s="141"/>
+      <c r="B37" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="89"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="96"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="139" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="92"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="99"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A39" s="140"/>
+      <c r="B39" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="100"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="108"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="140"/>
+      <c r="B40" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="110"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="51"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="140"/>
+      <c r="B41" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="114"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="112"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="140"/>
+      <c r="B42" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="114"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="112"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="140"/>
+      <c r="B43" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="114"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="112"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A44" s="141"/>
+      <c r="B44" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="116"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="120"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="53" orientation="landscape" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>